--- a/Buriganga/p_val/temp_cod_winter.xlsx
+++ b/Buriganga/p_val/temp_cod_winter.xlsx
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.414622753441703E-09</v>
+        <v>0.001159340468415899</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3.888673731439952E-06</v>
+        <v>0.01688172339397065</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.1047181358263592</v>
+        <v>0.04077603153696984</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.02500033142473817</v>
+        <v>3.161255852636932E-06</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.003626666424726122</v>
+        <v>0.003085346751189013</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.001042450745467933</v>
+        <v>0.0002665213965901073</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03043734651646469</v>
+        <v>0.004070535606516923</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1.19194118973555E-06</v>
+        <v>0.01593963746733034</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>5.659978277393238E-07</v>
+        <v>2.700737944245627E-05</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.07857670924110086</v>
+        <v>0.1797133833475947</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01755873062345048</v>
+        <v>0.005254050148419839</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.002189529518189554</v>
+        <v>2.58661528830488E-08</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.0005629940331783321</v>
+        <v>0.0002845227201583058</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02023522312116167</v>
+        <v>0.0624216459670924</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2.907620956111698E-07</v>
+        <v>0.1625660181496564</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.05259494838803697</v>
+        <v>0.3358982851789129</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01601512729712574</v>
+        <v>0.04788323733002983</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.002110851420421057</v>
+        <v>1.732730707608212E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.000517506929665725</v>
+        <v>0.002531488600186837</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01086441558348978</v>
+        <v>0.1658065201405813</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -727,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1.953174876522876E-06</v>
+        <v>0.3556362398325534</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>6.827465129289607E-05</v>
+        <v>0.02265543419268991</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -749,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.0008542803880860184</v>
+        <v>0.2097842850440486</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -760,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.002355091885220189</v>
+        <v>0.03751835463650342</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1.658215746096946E-05</v>
+        <v>0.01619140102445879</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.04384563445718857</v>
+        <v>0.02453730273673509</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>3.384073635850524E-06</v>
+        <v>0.009177550660203882</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -804,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>6.545894716583611E-05</v>
+        <v>0.001120487313412492</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -815,7 +815,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>5.107999586231088E-05</v>
+        <v>0.003128823230873349</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -826,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.008337577736219879</v>
+        <v>0.009160253568715755</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -837,7 +837,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>5.87515636804731E-08</v>
+        <v>0.0007846007178954875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -848,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.0001329347068225637</v>
+        <v>0.09347552914971889</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -859,7 +859,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.0007148072243030252</v>
+        <v>0.2182993567677314</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -870,7 +870,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.0003692872629903694</v>
+        <v>0.02309286862232549</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -881,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.0001102063908191001</v>
+        <v>0.0724339035584934</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -892,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.01210771033294704</v>
+        <v>3.73401536355911E-06</v>
       </c>
     </row>
   </sheetData>
